--- a/data/trans_dic/P64D$particular_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P64D$particular_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>37,59; 72,28</t>
+          <t>40,06; 72,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>42,91; 71,25</t>
+          <t>41,62; 69,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>45,89; 67,64</t>
+          <t>44,37; 66,91</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>68,18; 79,51</t>
+          <t>67,72; 79,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>28,48; 66,43</t>
+          <t>27,27; 66,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>41,11; 70,87</t>
+          <t>42,32; 70,95</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>73,25; 81,2</t>
+          <t>73,55; 81,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>61,24; 69,36</t>
+          <t>60,96; 69,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>69,29; 74,91</t>
+          <t>69,04; 75,08</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>78,67; 94,24</t>
+          <t>78,36; 94,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>62,36; 74,7</t>
+          <t>62,05; 73,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>72,5; 88,89</t>
+          <t>72,62; 88,5</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>66,03; 76,07</t>
+          <t>66,5; 76,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>49,25; 59,69</t>
+          <t>49,54; 59,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>60,86; 68,29</t>
+          <t>61,1; 68,23</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>21,16; 62,93</t>
+          <t>23,53; 60,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>20,7; 52,43</t>
+          <t>20,46; 52,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>25,9; 51,26</t>
+          <t>25,84; 51,34</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>73,9; 85,56</t>
+          <t>74,16; 85,11</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>49,34; 64,35</t>
+          <t>50,57; 64,29</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>66,42; 76,62</t>
+          <t>65,66; 76,61</t>
         </is>
       </c>
     </row>
@@ -964,4 +965,684 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menos, se desplaza desde su casa al centro de trabajo/estudios en vehículo particular (automóvil, moto)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>51029</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>46419</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>97447</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>36301; 65919</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>33815; 56217</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>76254; 114986</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>357</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>258590</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>181059</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>439649</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>237237; 278227</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>95384; 231798</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>296295; 496693</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>716</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>357882</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>229529</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>587411</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>339768; 375304</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>214085; 244375</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>561435; 610531</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>413</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>878</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>643064</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>302625</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>945689</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>583863; 706915</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>281030; 334552</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>869965; 1060220</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>212979</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>113956</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>326935</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>198940; 227423</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>103109; 124183</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>309950; 346123</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>7036</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>6222</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>13258</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>3987; 10179</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>3632; 9340</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>8963; 17813</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>746</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>746</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1598</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1598</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>1235</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>1257</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>2492</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>1531325</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>879809</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>2411135</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>1457763; 1673040</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>738808; 939288</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>2249815; 2625071</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>